--- a/medicine/Pharmacie/Lercanidipine/Lercanidipine.xlsx
+++ b/medicine/Pharmacie/Lercanidipine/Lercanidipine.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 La lercanidipine est une molécule de la famille des dihydropyridines qui a un effet antagoniste du calcium. Elle est principalement utilisée comme médicament antihypertenseur.
@@ -512,7 +524,9 @@
           <t>Propriétés pharmacologiques</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">La lercanidipine bloque les canaux du calcium présents sur les muscles qui entourent les vaisseaux sanguins. Ce qui entraîne leur relaxation et la dilatation des vaisseaux sanguins. Ainsi la tension artérielle diminue.
 </t>
@@ -543,7 +557,9 @@
           <t>Effets indésirables</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Les effets indésirables les plus fréquents sont :
 maux de tête,
@@ -578,7 +594,9 @@
           <t>Interactions avec d'autres substances</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">La lercanidipine est métabolisée au niveau du foie par le cytochrome P450 CYP3A4. La consommation de jus de pamplemousse pendant le traitement doit être évitée car il diminue l'activité du cytochrome CYP3A4 et peut conduire à un surdosage en lercanidipine.
 </t>
@@ -609,7 +627,9 @@
           <t>Spécialités contenant de la lercanidipine</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Médicaments contenant de la lercanidipine commercialisés en France :
 Lercan
@@ -644,9 +664,11 @@
           <t>Stéréochimie</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La lercanidipine contient un stéréocentre et se compose donc de deux énantiomères. C'est un racémate, c'est-à-dire le mélange 1:1 des formes ( R ) et ( S )[2]:
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La lercanidipine contient un stéréocentre et se compose donc de deux énantiomères. C'est un racémate, c'est-à-dire le mélange 1:1 des formes ( R ) et ( S ):
 </t>
         </is>
       </c>
